--- a/tests/files/MultipleOutputs.ipynb.xlsx
+++ b/tests/files/MultipleOutputs.ipynb.xlsx
@@ -410,19 +410,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.277318</v>
+        <v>0.548814</v>
       </c>
       <c r="D4">
-        <v>0.229179</v>
+        <v>0.715189</v>
       </c>
       <c r="E4">
-        <v>0.575418</v>
+        <v>0.602763</v>
       </c>
       <c r="F4">
-        <v>0.579102</v>
+        <v>0.544883</v>
       </c>
       <c r="G4">
-        <v>0.601535</v>
+        <v>0.423655</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -430,19 +430,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.944228</v>
+        <v>0.645894</v>
       </c>
       <c r="D5">
-        <v>0.473921</v>
+        <v>0.437587</v>
       </c>
       <c r="E5">
-        <v>0.590919</v>
+        <v>0.891773</v>
       </c>
       <c r="F5">
-        <v>0.298874</v>
+        <v>0.963663</v>
       </c>
       <c r="G5">
-        <v>0.71108</v>
+        <v>0.383442</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -450,19 +450,19 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0.549051</v>
+        <v>0.791725</v>
       </c>
       <c r="D6">
-        <v>0.287333</v>
+        <v>0.528895</v>
       </c>
       <c r="E6">
-        <v>0.272341</v>
+        <v>0.568045</v>
       </c>
       <c r="F6">
-        <v>0.488099</v>
+        <v>0.925597</v>
       </c>
       <c r="G6">
-        <v>0.099256</v>
+        <v>0.071036</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -470,19 +470,19 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.297643</v>
+        <v>0.087129</v>
       </c>
       <c r="D7">
-        <v>0.511514</v>
+        <v>0.020218</v>
       </c>
       <c r="E7">
-        <v>0.582142</v>
+        <v>0.83262</v>
       </c>
       <c r="F7">
-        <v>0.9033099999999999</v>
+        <v>0.778157</v>
       </c>
       <c r="G7">
-        <v>0.983922</v>
+        <v>0.870012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -490,19 +490,19 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.793797</v>
+        <v>0.978618</v>
       </c>
       <c r="D8">
-        <v>0.69503</v>
+        <v>0.799159</v>
       </c>
       <c r="E8">
-        <v>0.790165</v>
+        <v>0.461479</v>
       </c>
       <c r="F8">
-        <v>0.597714</v>
+        <v>0.780529</v>
       </c>
       <c r="G8">
-        <v>0.705242</v>
+        <v>0.118274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -532,19 +532,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.596939</v>
+        <v>0.639921</v>
       </c>
       <c r="D13">
-        <v>0.824219</v>
+        <v>0.143353</v>
       </c>
       <c r="E13">
-        <v>0.067387</v>
+        <v>0.944669</v>
       </c>
       <c r="F13">
-        <v>0.574891</v>
+        <v>0.521848</v>
       </c>
       <c r="G13">
-        <v>0.692273</v>
+        <v>0.414662</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -552,19 +552,19 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.443225</v>
+        <v>0.264556</v>
       </c>
       <c r="D14">
-        <v>0.5447650000000001</v>
+        <v>0.774234</v>
       </c>
       <c r="E14">
-        <v>0.949085</v>
+        <v>0.45615</v>
       </c>
       <c r="F14">
-        <v>0.647905</v>
+        <v>0.568434</v>
       </c>
       <c r="G14">
-        <v>0.570882</v>
+        <v>0.01879</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -572,19 +572,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.502058</v>
+        <v>0.617635</v>
       </c>
       <c r="D15">
-        <v>0.833198</v>
+        <v>0.612096</v>
       </c>
       <c r="E15">
-        <v>0.8696739999999999</v>
+        <v>0.616934</v>
       </c>
       <c r="F15">
-        <v>0.713086</v>
+        <v>0.943748</v>
       </c>
       <c r="G15">
-        <v>0.003126</v>
+        <v>0.68182</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -592,19 +592,19 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.598228</v>
+        <v>0.359508</v>
       </c>
       <c r="D16">
-        <v>0.06983399999999999</v>
+        <v>0.437032</v>
       </c>
       <c r="E16">
-        <v>0.52322</v>
+        <v>0.697631</v>
       </c>
       <c r="F16">
-        <v>0.142977</v>
+        <v>0.060225</v>
       </c>
       <c r="G16">
-        <v>0.040077</v>
+        <v>0.666767</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -612,19 +612,19 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.2628</v>
+        <v>0.670638</v>
       </c>
       <c r="D17">
-        <v>0.018219</v>
+        <v>0.210383</v>
       </c>
       <c r="E17">
-        <v>0.413513</v>
+        <v>0.128926</v>
       </c>
       <c r="F17">
-        <v>0.062998</v>
+        <v>0.315428</v>
       </c>
       <c r="G17">
-        <v>0.333174</v>
+        <v>0.363711</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -654,19 +654,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.640978</v>
+        <v>0.570197</v>
       </c>
       <c r="D22">
-        <v>0.962093</v>
+        <v>0.438602</v>
       </c>
       <c r="E22">
-        <v>0.44484</v>
+        <v>0.988374</v>
       </c>
       <c r="F22">
-        <v>0.000753</v>
+        <v>0.102045</v>
       </c>
       <c r="G22">
-        <v>0.258612</v>
+        <v>0.208877</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -674,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0.711404</v>
+        <v>0.16131</v>
       </c>
       <c r="D23">
-        <v>0.7148949999999999</v>
+        <v>0.653108</v>
       </c>
       <c r="E23">
-        <v>0.437264</v>
+        <v>0.253292</v>
       </c>
       <c r="F23">
-        <v>0.985076</v>
+        <v>0.466311</v>
       </c>
       <c r="G23">
-        <v>0.210179</v>
+        <v>0.244426</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -694,19 +694,19 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>0.176482</v>
+        <v>0.15897</v>
       </c>
       <c r="D24">
-        <v>0.17166</v>
+        <v>0.110375</v>
       </c>
       <c r="E24">
-        <v>0.856504</v>
+        <v>0.65633</v>
       </c>
       <c r="F24">
-        <v>0.814765</v>
+        <v>0.138183</v>
       </c>
       <c r="G24">
-        <v>0.050862</v>
+        <v>0.196582</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -714,19 +714,19 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.488148</v>
+        <v>0.368725</v>
       </c>
       <c r="D25">
-        <v>0.649721</v>
+        <v>0.820993</v>
       </c>
       <c r="E25">
-        <v>0.7485309999999999</v>
+        <v>0.09710100000000001</v>
       </c>
       <c r="F25">
-        <v>0.488342</v>
+        <v>0.8379450000000001</v>
       </c>
       <c r="G25">
-        <v>0.225795</v>
+        <v>0.096098</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.465147</v>
+        <v>0.976459</v>
       </c>
       <c r="D26">
-        <v>0.9248189999999999</v>
+        <v>0.468651</v>
       </c>
       <c r="E26">
-        <v>0.635108</v>
+        <v>0.976761</v>
       </c>
       <c r="F26">
-        <v>0.679795</v>
+        <v>0.604846</v>
       </c>
       <c r="G26">
-        <v>0.440895</v>
+        <v>0.739264</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.334049</v>
+        <v>0.039188</v>
       </c>
       <c r="D31">
-        <v>0.512254</v>
+        <v>0.282807</v>
       </c>
       <c r="E31">
-        <v>0.385999</v>
+        <v>0.120197</v>
       </c>
       <c r="F31">
-        <v>0.403351</v>
+        <v>0.29614</v>
       </c>
       <c r="G31">
-        <v>0.489311</v>
+        <v>0.118728</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -796,19 +796,19 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.981908</v>
+        <v>0.317983</v>
       </c>
       <c r="D32">
-        <v>0.837448</v>
+        <v>0.414263</v>
       </c>
       <c r="E32">
-        <v>0.17858</v>
+        <v>0.064147</v>
       </c>
       <c r="F32">
-        <v>0.998982</v>
+        <v>0.692472</v>
       </c>
       <c r="G32">
-        <v>0.9089970000000001</v>
+        <v>0.566601</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -816,19 +816,19 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0.017941</v>
+        <v>0.265389</v>
       </c>
       <c r="D33">
-        <v>0.510974</v>
+        <v>0.523248</v>
       </c>
       <c r="E33">
-        <v>0.281423</v>
+        <v>0.093941</v>
       </c>
       <c r="F33">
-        <v>0.078222</v>
+        <v>0.575946</v>
       </c>
       <c r="G33">
-        <v>0.546807</v>
+        <v>0.929296</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -836,19 +836,19 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.861214</v>
+        <v>0.318569</v>
       </c>
       <c r="D34">
-        <v>0.604328</v>
+        <v>0.6674099999999999</v>
       </c>
       <c r="E34">
-        <v>0.50401</v>
+        <v>0.131798</v>
       </c>
       <c r="F34">
-        <v>0.241147</v>
+        <v>0.716327</v>
       </c>
       <c r="G34">
-        <v>0.119265</v>
+        <v>0.289406</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -856,19 +856,19 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0.733064</v>
+        <v>0.183191</v>
       </c>
       <c r="D35">
-        <v>0.026421</v>
+        <v>0.586513</v>
       </c>
       <c r="E35">
-        <v>0.06121</v>
+        <v>0.020108</v>
       </c>
       <c r="F35">
-        <v>0.903535</v>
+        <v>0.82894</v>
       </c>
       <c r="G35">
-        <v>0.357028</v>
+        <v>0.004695</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.9651420000000001</v>
+        <v>0.677817</v>
       </c>
       <c r="D40">
-        <v>0.16084</v>
+        <v>0.270008</v>
       </c>
       <c r="E40">
-        <v>0.761005</v>
+        <v>0.735194</v>
       </c>
       <c r="F40">
-        <v>0.940614</v>
+        <v>0.962189</v>
       </c>
       <c r="G40">
-        <v>0.083095</v>
+        <v>0.248753</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -918,19 +918,19 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.605433</v>
+        <v>0.576157</v>
       </c>
       <c r="D41">
-        <v>0.915389</v>
+        <v>0.592042</v>
       </c>
       <c r="E41">
-        <v>0.28289</v>
+        <v>0.572252</v>
       </c>
       <c r="F41">
-        <v>0.411979</v>
+        <v>0.223082</v>
       </c>
       <c r="G41">
-        <v>0.118032</v>
+        <v>0.952749</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -938,19 +938,19 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>0.003022</v>
+        <v>0.447125</v>
       </c>
       <c r="D42">
-        <v>0.436311</v>
+        <v>0.846409</v>
       </c>
       <c r="E42">
-        <v>0.365676</v>
+        <v>0.699479</v>
       </c>
       <c r="F42">
-        <v>0.500727</v>
+        <v>0.297437</v>
       </c>
       <c r="G42">
-        <v>0.524392</v>
+        <v>0.813798</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -958,19 +958,19 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.623377</v>
+        <v>0.396506</v>
       </c>
       <c r="D43">
-        <v>0.787497</v>
+        <v>0.881103</v>
       </c>
       <c r="E43">
-        <v>0.386282</v>
+        <v>0.581273</v>
       </c>
       <c r="F43">
-        <v>0.762893</v>
+        <v>0.881735</v>
       </c>
       <c r="G43">
-        <v>0.036123</v>
+        <v>0.692532</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -978,19 +978,19 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>0.8865499999999999</v>
+        <v>0.725254</v>
       </c>
       <c r="D44">
-        <v>0.404388</v>
+        <v>0.501324</v>
       </c>
       <c r="E44">
-        <v>0.365752</v>
+        <v>0.956084</v>
       </c>
       <c r="F44">
-        <v>0.844401</v>
+        <v>0.64399</v>
       </c>
       <c r="G44">
-        <v>0.151671</v>
+        <v>0.423855</v>
       </c>
     </row>
     <row r="46" spans="1:7">

--- a/tests/files/MultipleOutputs.ipynb.xlsx
+++ b/tests/files/MultipleOutputs.ipynb.xlsx
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +51,14 @@
     </font>
     <font>
       <sz val="30"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,9 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,24 +398,25 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4">
@@ -426,7 +436,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5">
@@ -446,7 +456,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6">
@@ -466,7 +476,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7">
@@ -486,7 +496,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8">
@@ -511,24 +521,25 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="C12">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13">
@@ -548,7 +559,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14">
@@ -568,7 +579,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15">
@@ -588,7 +599,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16">
@@ -608,7 +619,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17">
+      <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17">
@@ -633,24 +644,25 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
       <c r="C22">
@@ -670,7 +682,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23">
@@ -690,7 +702,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24">
@@ -710,7 +722,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25">
+      <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25">
@@ -730,7 +742,7 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26">
+      <c r="B26" s="2">
         <v>4</v>
       </c>
       <c r="C26">
@@ -755,24 +767,25 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>3</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31">
@@ -792,7 +805,7 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32">
@@ -812,7 +825,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="B33">
+      <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33">
@@ -832,7 +845,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="B34">
+      <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34">
@@ -852,7 +865,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35">
+      <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35">
@@ -877,24 +890,25 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="C39">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>3</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="B40">
+      <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40">
@@ -914,7 +928,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="B41">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41">
@@ -934,7 +948,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="B42">
+      <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42">
@@ -954,7 +968,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="B43">
+      <c r="B43" s="2">
         <v>3</v>
       </c>
       <c r="C43">
@@ -974,7 +988,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="B44">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
       <c r="C44">
